--- a/WishupQA/src/main/java/com/qa/testData/WishupLoginTestData.xlsx
+++ b/WishupQA/src/main/java/com/qa/testData/WishupLoginTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{27C0EACC-DD7B-489E-97F5-108CC5A3669D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E25BCC3D-00EB-491F-B23C-33319B0D770A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
